--- a/Input/Choque.xlsx
+++ b/Input/Choque.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoo\Google Drive\IPEA\CGE\ProgramsPy\GeraAnaliseNacional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020E87C-A3D5-4AB5-BB51-FE4AF9E4098F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9474C21-85A4-4DEE-A503-257C72999839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22212" yWindow="-108" windowWidth="18492" windowHeight="11016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>Estoque</t>
-  </si>
-  <si>
-    <t>Restrição Trabalho</t>
   </si>
 </sst>
 </file>
@@ -668,7 +665,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2483,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AEA6B-E89F-4C8A-AA3F-A012BA71E933}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C69" sqref="C1:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2500,8 +2497,8 @@
       <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
-        <v>83</v>
+      <c r="C1">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2567,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2600,7 +2597,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2611,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2622,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2644,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,7 +2652,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2666,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2677,7 +2674,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2688,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2699,7 +2696,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,7 +2707,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2721,7 +2718,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2732,7 +2729,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2743,7 +2740,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,7 +2751,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2765,7 +2762,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2776,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2787,7 +2784,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2798,7 +2795,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,7 +2806,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2820,7 +2817,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2831,7 +2828,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2842,7 +2839,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2853,7 +2850,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,7 +2861,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2875,7 +2872,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2897,7 +2894,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2908,7 +2905,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,7 +2916,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,7 +2927,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2941,7 +2938,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,7 +2949,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2963,7 +2960,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,7 +2971,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2985,7 +2982,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,7 +2993,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3007,7 +3004,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,7 +3026,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,7 +3037,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3051,7 +3048,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3062,7 +3059,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3073,7 +3070,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3084,7 +3081,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,7 +3092,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,7 +3103,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,7 +3114,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,7 +3125,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,7 +3136,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3150,7 +3147,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3161,7 +3158,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3172,7 +3169,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3183,7 +3180,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3194,7 +3191,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3205,7 +3202,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3216,7 +3213,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3227,7 +3224,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3238,7 +3235,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3249,7 +3246,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Choque.xlsx
+++ b/Input/Choque.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoo\Google Drive\IPEA\CGE\ProgramsPy\GeraAnaliseNacional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9474C21-85A4-4DEE-A503-257C72999839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD79C09E-94E5-4589-AA2A-31E656B79002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22212" yWindow="-108" windowWidth="18492" windowHeight="11016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20832" yWindow="132" windowWidth="16548" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda" sheetId="1" r:id="rId1"/>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-2.5000000000000005E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.09</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-4.6000000000000006E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-4.6000000000000006E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.10000000000000002</v>
+        <v>-5.000000000000001E-2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.36749999999999999</v>
+        <v>-0.26250000000000001</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.36749999999999999</v>
+        <v>-0.26250000000000001</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-0.36749999999999999</v>
+        <v>-0.26250000000000001</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-3.7499999999999999E-2</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-3.7499999999999999E-2</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.17499999999999996</v>
+        <v>-0.21325000000000002</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.17499999999999996</v>
+        <v>-0.21325000000000002</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-2.5000000000000005E-2</v>
+        <v>-5.9200000000000003E-2</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-2.5000000000000005E-2</v>
+        <v>-5.9200000000000003E-2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-2.5000000000000005E-2</v>
+        <v>-5.9200000000000003E-2</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.14599999999999999</v>
+        <v>-9.11E-2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.17749999999999999</v>
+        <v>-0.14005000000000001</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.156</v>
+        <v>-0.10775</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.156</v>
+        <v>-0.10775</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.156</v>
+        <v>-0.10775</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.156</v>
+        <v>-0.10775</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.13250000000000001</v>
+        <v>-0.14899999999999999</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.13250000000000001</v>
+        <v>-0.14899999999999999</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-9.6000000000000016E-2</v>
+        <v>-0.12504999999999999</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.30199999999999999</v>
+        <v>-0.35105000000000003</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.30199999999999999</v>
+        <v>-0.35105000000000003</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.30199999999999999</v>
+        <v>-0.35105000000000003</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.3795</v>
+        <v>-0.15884999999999999</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-9.0000000000000011E-2</v>
+        <v>-0.23155000000000001</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.24</v>
+        <v>-0.15634999999999999</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>-8.9050000000000004E-2</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-0.1825</v>
+        <v>-0.1321</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-3.4500000000000003E-2</v>
+        <v>-0.1198</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.32500000000000001</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-0.17485000000000003</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.46600000000000003</v>
+        <v>-0.37719999999999998</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>6.1499999999999999E-2</v>
+        <v>-2.2700000000000001E-2</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-0.45900000000000002</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.377</v>
+        <v>-0.27</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>-0.20349999999999999</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.10000000000000002</v>
+        <v>-0.20349999999999999</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-6.5500000000000003E-2</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>8.5000000000000006E-2</v>
+        <v>-7.9649999999999999E-2</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1.4250000000000001E-2</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.23749999999999996</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>-0.16059999999999999</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.10000000000000002</v>
+        <v>3.6850000000000001E-2</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.10000000000000002</v>
+        <v>3.6850000000000001E-2</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.49499999999999994</v>
+        <v>-0.375</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2480,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AEA6B-E89F-4C8A-AA3F-A012BA71E933}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C69" sqref="C1:C69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2497,9 +2497,6 @@
       <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="C1">
-        <v>-0.5</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2509,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.5</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2520,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-0.5</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2531,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>-0.5</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2542,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-0.5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2553,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.5</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2564,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>-0.5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2575,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-0.5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2586,7 +2583,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-0.5</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2597,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-0.5</v>
+        <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2608,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-0.5</v>
+        <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2619,7 +2616,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.5</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2630,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-0.5</v>
+        <v>-5.000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2641,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.5</v>
+        <v>-0.26250000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2652,7 +2649,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.5</v>
+        <v>-0.26250000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2663,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.5</v>
+        <v>-0.26250000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2674,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.5</v>
+        <v>-5.5E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2685,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>-0.5</v>
+        <v>-5.5E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2696,7 +2693,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>-0.5</v>
+        <v>-7.85E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,7 +2704,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>-0.5</v>
+        <v>-0.21325000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2718,7 +2715,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.5</v>
+        <v>-0.21325000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,7 +2726,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.5</v>
+        <v>-5.9200000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2740,7 +2737,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>-0.5</v>
+        <v>-5.9200000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,7 +2748,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>-0.5</v>
+        <v>-5.9200000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2762,7 +2759,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-0.5</v>
+        <v>-9.11E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2773,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-0.5</v>
+        <v>-0.14005000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,7 +2781,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.5</v>
+        <v>-0.10775</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,7 +2792,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>-0.5</v>
+        <v>-0.10775</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,7 +2803,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>-0.5</v>
+        <v>-0.10775</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>-0.5</v>
+        <v>-0.10775</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,7 +2825,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>-0.5</v>
+        <v>-0.14899999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,7 +2836,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>-0.5</v>
+        <v>-0.14899999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,7 +2847,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>-0.5</v>
+        <v>-0.12504999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2861,7 +2858,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>-0.5</v>
+        <v>-0.35105000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>-0.5</v>
+        <v>-0.35105000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,7 +2880,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>-0.5</v>
+        <v>-0.35105000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,7 +2891,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>-0.5</v>
+        <v>-0.15884999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,7 +2902,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,7 +2913,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>-0.5</v>
+        <v>-0.23155000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,7 +2924,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>-0.5</v>
+        <v>-0.15634999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2938,7 +2935,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>-0.5</v>
+        <v>-8.9050000000000004E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,7 +2946,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>-0.5</v>
+        <v>-0.1321</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,7 +2957,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>-0.5</v>
+        <v>-0.1198</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,7 +2968,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>-0.5</v>
+        <v>-0.36899999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,7 +2979,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>-0.5</v>
+        <v>-0.17485000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2993,7 +2990,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>-0.5</v>
+        <v>-0.37719999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,7 +3001,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>-0.5</v>
+        <v>-2.2700000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,7 +3012,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,7 +3023,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>-0.5</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,7 +3034,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>-0.5</v>
+        <v>-0.20349999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,7 +3045,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>-0.5</v>
+        <v>-0.20349999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,7 +3056,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>-0.5</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,7 +3067,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>-0.5</v>
+        <v>-7.9649999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,7 +3078,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>-0.5</v>
+        <v>1.4250000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,7 +3089,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,7 +3100,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>-0.5</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,7 +3111,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>-0.5</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,7 +3122,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>-0.5</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,7 +3133,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>-0.5</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,7 +3144,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>-0.5</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,7 +3155,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>-0.5</v>
+        <v>-8.6950000000000013E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,7 +3166,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>-0.5</v>
+        <v>-0.23749999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,7 +3177,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>-0.5</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,7 +3188,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>-0.5</v>
+        <v>-0.16059999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>-0.5</v>
+        <v>3.6850000000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,7 +3210,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>-0.5</v>
+        <v>3.6850000000000001E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,7 +3221,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>-0.5</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,7 +3232,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,7 +3243,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>-0.5</v>
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
